--- a/1st_round_screening/ACE/iteration_2/data/unlabeled_processed_2.xlsx
+++ b/1st_round_screening/ACE/iteration_2/data/unlabeled_processed_2.xlsx
@@ -545,43 +545,43 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269</v>
+        <v>0.236</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237</v>
+        <v>0.161</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="G2" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.212</v>
+        <v>0.134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.233</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.384</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368</v>
+        <v>0.343</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -616,25 +616,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>0.357</v>
+        <v>0.402</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.287</v>
+        <v>0.299</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>0.405</v>
+        <v>0.476</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.356</v>
+        <v>0.371</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -757,43 +757,43 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189</v>
+        <v>0.524</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.299</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>0.302</v>
+        <v>0.505</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>0.329</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,13 +969,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34</v>
+        <v>0.573</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.427</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1022,13 +1022,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>0.348</v>
+        <v>0.411</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D11" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1037,28 +1037,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1075,22 +1075,22 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>0.343</v>
+        <v>0.494</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.637</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1128,28 +1128,28 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,22 +1181,22 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>0.364</v>
+        <v>0.571</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1234,46 +1234,46 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1287,13 +1287,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254</v>
+        <v>0.578</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1340,28 +1340,28 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>0.188</v>
+        <v>0.578</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="D17" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
